--- a/doc/字段速查表.xlsx
+++ b/doc/字段速查表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ipython\kaggle\Kaggle_Home_Credit_Default_Risk\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -546,24 +546,12 @@
     <t>CREDIT_DAY_OVERDUE</t>
   </si>
   <si>
-    <t>Number of days past due on CB credit at the time of application for related loan in our sample</t>
-  </si>
-  <si>
     <t>DAYS_CREDIT_ENDDATE</t>
   </si>
   <si>
-    <t>Remaining duration of CB credit (in days) at the time of application in Home Credit</t>
-  </si>
-  <si>
-    <t>DAYS_ENDDATE_FACT</t>
-  </si>
-  <si>
     <t>Days since CB credit ended at the time of application in Home Credit (only for closed credit)</t>
   </si>
   <si>
-    <t>AMT_CREDIT_MAX_OVERDUE</t>
-  </si>
-  <si>
     <t>Maximal amount overdue on the Credit Bureau credit so far (at application date of loan in our sample)</t>
   </si>
   <si>
@@ -579,9 +567,6 @@
     <t>Current credit amount for the Credit Bureau credit</t>
   </si>
   <si>
-    <t>AMT_CREDIT_SUM_DEBT</t>
-  </si>
-  <si>
     <t>Current debt on Credit Bureau credit</t>
   </si>
   <si>
@@ -624,9 +609,6 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>Status of Credit Bureau loan during the month (active, closed, DPD0-30,?[C means closed, X means status unknown, 0 means no DPD, 1 means maximal did during month between 1-30, 2 means DPD 31-60,?5 means DPD 120+ or sold or written off ] )</t>
-  </si>
-  <si>
     <t xml:space="preserve">SK_ID_PREV </t>
   </si>
   <si>
@@ -1480,29 +1462,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>在向本公司申请时，对应的其他信用机构贷款的逾期天数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>在向本公司申请时，已还清贷款至今的天数</t>
-  </si>
-  <si>
-    <t>在向本公司申请时，最大逾期金额</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>拖延还款几次</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前信用额度</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前负债</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>信用卡的信用额度</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1524,10 +1483,6 @@
   </si>
   <si>
     <t>信用局记录编码ID（每笔申请的唯一编码）-使用这个来连接到credit bureau表</t>
-  </si>
-  <si>
-    <t>每期还款状态 C代表已还清 X代表状态未知，0代表未逾期，1代表逾期天数1-30天...</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>样本中的贷款ID</t>
@@ -2015,6 +1970,59 @@
   </si>
   <si>
     <t>一年前向征信机构查询次数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>每期还款状态 C代表已还清 X代表状态未知，0代表未逾期，1代表逾期天数1-30天…</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remaining duration of CB credit (in days) at the time of application in Home Credit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status of Credit Bureau loan during the month (active, closed, DPD0-30,?[C means closed, X means status unknown, 0 means no DPD, 1 means maximal did during month between 1-30, 2 means DPD 31-60,?5 means DPD 120+ or sold or written off ] )</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在向本公司申请时，已还清贷款至今的天数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMT_CREDIT_MAX_OVERDUE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在向本公司申请时，最大逾期金额</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of days past due on CB credit at the time of application for related loan in our sample</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAYS_ENDDATE_FACT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在向本公司申请时，该笔历史贷款记录的逾期天数
+该值大于0，且DAYS_ENDDATE_FACT为空时，说明</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖延还款几次</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款额度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款余额</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMT_CREDIT_SUM_DEBT</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2792,41 +2800,41 @@
     <xf numFmtId="0" fontId="23" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3152,8 +3160,8 @@
   <dimension ref="A1:G227"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.2"/>
@@ -3171,137 +3179,137 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="A2" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="6" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="F3" s="9"/>
-      <c r="G3" s="20"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="6" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="21"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="6" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="21"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="6" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="21"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="21"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="21"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>10</v>
@@ -3311,12 +3319,12 @@
         <v>11</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="21"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="6" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>12</v>
@@ -3326,29 +3334,29 @@
         <v>13</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="21"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="21"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="6" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>16</v>
@@ -3358,169 +3366,169 @@
         <v>17</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="6" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="21"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="21"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="6" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="21"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7" ht="54" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="6" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="21"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="6" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="21"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7" ht="54" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="6" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="21"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="6" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="21"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="6" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>31</v>
@@ -3532,31 +3540,31 @@
       <c r="F22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="21"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="6" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="21"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="6" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>34</v>
@@ -3566,131 +3574,131 @@
         <v>35</v>
       </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="21"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="26"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>37</v>
       </c>
       <c r="F25" s="9"/>
-      <c r="G25" s="21"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="6" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>39</v>
       </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="21"/>
+      <c r="G26" s="19"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="6" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="9"/>
-      <c r="G27" s="21"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="6" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F28" s="9"/>
-      <c r="G28" s="21"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="26"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="6" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="21"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="26"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="6" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>46</v>
       </c>
       <c r="F30" s="9"/>
-      <c r="G30" s="21"/>
+      <c r="G30" s="19"/>
     </row>
     <row r="31" spans="1:7" ht="108" x14ac:dyDescent="0.2">
-      <c r="A31" s="26"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="6" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>48</v>
       </c>
       <c r="F31" s="9"/>
-      <c r="G31" s="21"/>
+      <c r="G31" s="19"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="26"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="6" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>49</v>
@@ -3700,224 +3708,224 @@
         <v>50</v>
       </c>
       <c r="F32" s="9"/>
-      <c r="G32" s="21"/>
+      <c r="G32" s="19"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="6" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>52</v>
       </c>
       <c r="F33" s="9"/>
-      <c r="G33" s="21"/>
+      <c r="G33" s="19"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="26"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F34" s="9"/>
-      <c r="G34" s="21"/>
+      <c r="G34" s="19"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="26"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F35" s="9"/>
-      <c r="G35" s="21"/>
+      <c r="G35" s="19"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="26"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="6" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="21"/>
+      <c r="G36" s="19"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="26"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="6" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F37" s="9"/>
-      <c r="G37" s="21"/>
+      <c r="G37" s="19"/>
     </row>
     <row r="38" spans="1:7" ht="27" x14ac:dyDescent="0.2">
-      <c r="A38" s="26"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="6" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F38" s="9"/>
-      <c r="G38" s="21"/>
+      <c r="G38" s="19"/>
     </row>
     <row r="39" spans="1:7" ht="27" x14ac:dyDescent="0.2">
-      <c r="A39" s="26"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="6" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>58</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F39" s="9"/>
-      <c r="G39" s="21"/>
+      <c r="G39" s="19"/>
     </row>
     <row r="40" spans="1:7" ht="27" x14ac:dyDescent="0.2">
-      <c r="A40" s="26"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="6" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>60</v>
       </c>
       <c r="F40" s="9"/>
-      <c r="G40" s="21"/>
+      <c r="G40" s="19"/>
     </row>
     <row r="41" spans="1:7" ht="27" x14ac:dyDescent="0.2">
-      <c r="A41" s="26"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="6" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>62</v>
       </c>
       <c r="F41" s="9"/>
-      <c r="G41" s="21"/>
+      <c r="G41" s="19"/>
     </row>
     <row r="42" spans="1:7" ht="27" x14ac:dyDescent="0.2">
-      <c r="A42" s="26"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>64</v>
       </c>
       <c r="F42" s="9"/>
-      <c r="G42" s="21"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="26"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="6" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>65</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="9" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F43" s="9"/>
-      <c r="G43" s="21"/>
+      <c r="G43" s="19"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="26"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="6" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>66</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="21"/>
+      <c r="G44" s="19"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="26"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="6" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>69</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>67</v>
@@ -3925,18 +3933,18 @@
       <c r="F45" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G45" s="21"/>
+      <c r="G45" s="19"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="26"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="6" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>67</v>
@@ -3944,84 +3952,84 @@
       <c r="F46" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G46" s="21"/>
+      <c r="G46" s="19"/>
     </row>
     <row r="47" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A47" s="26"/>
+      <c r="A47" s="25"/>
       <c r="B47" s="6"/>
       <c r="C47" s="9" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G47" s="21"/>
+      <c r="G47" s="19"/>
     </row>
     <row r="48" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A48" s="26"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="6"/>
       <c r="C48" s="9" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G48" s="21"/>
+      <c r="G48" s="19"/>
     </row>
     <row r="49" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A49" s="26"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="6"/>
       <c r="C49" s="9" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G49" s="21"/>
+      <c r="G49" s="19"/>
     </row>
     <row r="50" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A50" s="26"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="6"/>
       <c r="C50" s="9" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G50" s="21"/>
+      <c r="G50" s="19"/>
     </row>
     <row r="51" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A51" s="26"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="6"/>
       <c r="C51" s="9" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>71</v>
@@ -4029,16 +4037,16 @@
       <c r="F51" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G51" s="21"/>
+      <c r="G51" s="19"/>
     </row>
     <row r="52" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A52" s="26"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="6"/>
       <c r="C52" s="9" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>71</v>
@@ -4046,16 +4054,16 @@
       <c r="F52" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G52" s="21"/>
+      <c r="G52" s="19"/>
     </row>
     <row r="53" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A53" s="26"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="6"/>
       <c r="C53" s="9" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>71</v>
@@ -4063,16 +4071,16 @@
       <c r="F53" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G53" s="21"/>
+      <c r="G53" s="19"/>
     </row>
     <row r="54" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A54" s="26"/>
+      <c r="A54" s="25"/>
       <c r="B54" s="6"/>
       <c r="C54" s="9" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>71</v>
@@ -4080,16 +4088,16 @@
       <c r="F54" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="21"/>
+      <c r="G54" s="19"/>
     </row>
     <row r="55" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A55" s="26"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="6"/>
       <c r="C55" s="9" t="s">
         <v>72</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>71</v>
@@ -4097,16 +4105,16 @@
       <c r="F55" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G55" s="21"/>
+      <c r="G55" s="19"/>
     </row>
     <row r="56" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A56" s="26"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="6"/>
       <c r="C56" s="9" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>71</v>
@@ -4114,33 +4122,33 @@
       <c r="F56" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G56" s="21"/>
+      <c r="G56" s="19"/>
     </row>
     <row r="57" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A57" s="26"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="6"/>
       <c r="C57" s="9" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G57" s="21"/>
+      <c r="G57" s="19"/>
     </row>
     <row r="58" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A58" s="26"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="6"/>
       <c r="C58" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>71</v>
@@ -4148,50 +4156,50 @@
       <c r="F58" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G58" s="21"/>
+      <c r="G58" s="19"/>
     </row>
     <row r="59" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A59" s="26"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="6"/>
       <c r="C59" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G59" s="21"/>
+      <c r="G59" s="19"/>
     </row>
     <row r="60" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A60" s="26"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="6"/>
       <c r="C60" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="G60" s="21"/>
+        <v>361</v>
+      </c>
+      <c r="G60" s="19"/>
     </row>
     <row r="61" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A61" s="26"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="6"/>
       <c r="C61" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>71</v>
@@ -4199,16 +4207,16 @@
       <c r="F61" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G61" s="21"/>
+      <c r="G61" s="19"/>
     </row>
     <row r="62" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A62" s="26"/>
+      <c r="A62" s="25"/>
       <c r="B62" s="6"/>
       <c r="C62" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>71</v>
@@ -4216,16 +4224,16 @@
       <c r="F62" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G62" s="21"/>
+      <c r="G62" s="19"/>
     </row>
     <row r="63" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A63" s="26"/>
+      <c r="A63" s="25"/>
       <c r="B63" s="6"/>
       <c r="C63" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>71</v>
@@ -4233,16 +4241,16 @@
       <c r="F63" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G63" s="21"/>
+      <c r="G63" s="19"/>
     </row>
     <row r="64" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A64" s="26"/>
+      <c r="A64" s="25"/>
       <c r="B64" s="6"/>
       <c r="C64" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>71</v>
@@ -4250,16 +4258,16 @@
       <c r="F64" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G64" s="21"/>
+      <c r="G64" s="19"/>
     </row>
     <row r="65" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A65" s="26"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="6"/>
       <c r="C65" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>71</v>
@@ -4267,50 +4275,50 @@
       <c r="F65" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G65" s="21"/>
+      <c r="G65" s="19"/>
     </row>
     <row r="66" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A66" s="26"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="6"/>
       <c r="C66" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F66" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G66" s="21"/>
+      <c r="G66" s="19"/>
     </row>
     <row r="67" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A67" s="26"/>
+      <c r="A67" s="25"/>
       <c r="B67" s="6"/>
       <c r="C67" s="9" t="s">
         <v>82</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F67" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G67" s="21"/>
+      <c r="G67" s="19"/>
     </row>
     <row r="68" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A68" s="26"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="6"/>
       <c r="C68" s="9" t="s">
         <v>83</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>71</v>
@@ -4318,16 +4326,16 @@
       <c r="F68" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G68" s="21"/>
+      <c r="G68" s="19"/>
     </row>
     <row r="69" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A69" s="26"/>
+      <c r="A69" s="25"/>
       <c r="B69" s="6"/>
       <c r="C69" s="9" t="s">
         <v>84</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>71</v>
@@ -4335,16 +4343,16 @@
       <c r="F69" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G69" s="21"/>
+      <c r="G69" s="19"/>
     </row>
     <row r="70" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A70" s="26"/>
+      <c r="A70" s="25"/>
       <c r="B70" s="6"/>
       <c r="C70" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>71</v>
@@ -4352,16 +4360,16 @@
       <c r="F70" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G70" s="21"/>
+      <c r="G70" s="19"/>
     </row>
     <row r="71" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A71" s="26"/>
+      <c r="A71" s="25"/>
       <c r="B71" s="6"/>
       <c r="C71" s="9" t="s">
         <v>86</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>71</v>
@@ -4369,16 +4377,16 @@
       <c r="F71" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G71" s="21"/>
+      <c r="G71" s="19"/>
     </row>
     <row r="72" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A72" s="26"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="6"/>
       <c r="C72" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>71</v>
@@ -4386,84 +4394,84 @@
       <c r="F72" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G72" s="21"/>
+      <c r="G72" s="19"/>
     </row>
     <row r="73" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A73" s="26"/>
+      <c r="A73" s="25"/>
       <c r="B73" s="6"/>
       <c r="C73" s="9" t="s">
         <v>88</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F73" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G73" s="21"/>
+      <c r="G73" s="19"/>
     </row>
     <row r="74" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A74" s="26"/>
+      <c r="A74" s="25"/>
       <c r="B74" s="6"/>
       <c r="C74" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F74" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G74" s="21"/>
+      <c r="G74" s="19"/>
     </row>
     <row r="75" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A75" s="26"/>
+      <c r="A75" s="25"/>
       <c r="B75" s="6"/>
       <c r="C75" s="9" t="s">
         <v>90</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G75" s="21"/>
+      <c r="G75" s="19"/>
     </row>
     <row r="76" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A76" s="26"/>
+      <c r="A76" s="25"/>
       <c r="B76" s="6"/>
       <c r="C76" s="9" t="s">
         <v>91</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F76" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G76" s="21"/>
+      <c r="G76" s="19"/>
     </row>
     <row r="77" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A77" s="26"/>
+      <c r="A77" s="25"/>
       <c r="B77" s="6"/>
       <c r="C77" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>71</v>
@@ -4471,16 +4479,16 @@
       <c r="F77" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G77" s="21"/>
+      <c r="G77" s="19"/>
     </row>
     <row r="78" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A78" s="26"/>
+      <c r="A78" s="25"/>
       <c r="B78" s="6"/>
       <c r="C78" s="9" t="s">
         <v>93</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>71</v>
@@ -4488,16 +4496,16 @@
       <c r="F78" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G78" s="21"/>
+      <c r="G78" s="19"/>
     </row>
     <row r="79" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A79" s="26"/>
+      <c r="A79" s="25"/>
       <c r="B79" s="6"/>
       <c r="C79" s="9" t="s">
         <v>94</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>71</v>
@@ -4505,16 +4513,16 @@
       <c r="F79" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G79" s="21"/>
+      <c r="G79" s="19"/>
     </row>
     <row r="80" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A80" s="26"/>
+      <c r="A80" s="25"/>
       <c r="B80" s="6"/>
       <c r="C80" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>71</v>
@@ -4522,16 +4530,16 @@
       <c r="F80" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G80" s="21"/>
+      <c r="G80" s="19"/>
     </row>
     <row r="81" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A81" s="26"/>
+      <c r="A81" s="25"/>
       <c r="B81" s="6"/>
       <c r="C81" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>71</v>
@@ -4539,16 +4547,16 @@
       <c r="F81" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G81" s="21"/>
+      <c r="G81" s="19"/>
     </row>
     <row r="82" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A82" s="26"/>
+      <c r="A82" s="25"/>
       <c r="B82" s="6"/>
       <c r="C82" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>71</v>
@@ -4556,16 +4564,16 @@
       <c r="F82" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G82" s="21"/>
+      <c r="G82" s="19"/>
     </row>
     <row r="83" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A83" s="26"/>
+      <c r="A83" s="25"/>
       <c r="B83" s="6"/>
       <c r="C83" s="9" t="s">
         <v>98</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>71</v>
@@ -4573,16 +4581,16 @@
       <c r="F83" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G83" s="21"/>
+      <c r="G83" s="19"/>
     </row>
     <row r="84" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A84" s="26"/>
+      <c r="A84" s="25"/>
       <c r="B84" s="6"/>
       <c r="C84" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>71</v>
@@ -4590,16 +4598,16 @@
       <c r="F84" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G84" s="21"/>
+      <c r="G84" s="19"/>
     </row>
     <row r="85" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A85" s="26"/>
+      <c r="A85" s="25"/>
       <c r="B85" s="6"/>
       <c r="C85" s="9" t="s">
         <v>100</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>71</v>
@@ -4607,16 +4615,16 @@
       <c r="F85" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G85" s="21"/>
+      <c r="G85" s="19"/>
     </row>
     <row r="86" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A86" s="26"/>
+      <c r="A86" s="25"/>
       <c r="B86" s="6"/>
       <c r="C86" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>71</v>
@@ -4624,16 +4632,16 @@
       <c r="F86" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G86" s="21"/>
+      <c r="G86" s="19"/>
     </row>
     <row r="87" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A87" s="26"/>
+      <c r="A87" s="25"/>
       <c r="B87" s="6"/>
       <c r="C87" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>71</v>
@@ -4641,16 +4649,16 @@
       <c r="F87" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G87" s="21"/>
+      <c r="G87" s="19"/>
     </row>
     <row r="88" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A88" s="26"/>
+      <c r="A88" s="25"/>
       <c r="B88" s="6"/>
       <c r="C88" s="9" t="s">
         <v>103</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>71</v>
@@ -4658,16 +4666,16 @@
       <c r="F88" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G88" s="21"/>
+      <c r="G88" s="19"/>
     </row>
     <row r="89" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A89" s="26"/>
+      <c r="A89" s="25"/>
       <c r="B89" s="6"/>
       <c r="C89" s="9" t="s">
         <v>104</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>71</v>
@@ -4675,16 +4683,16 @@
       <c r="F89" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G89" s="21"/>
+      <c r="G89" s="19"/>
     </row>
     <row r="90" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A90" s="26"/>
+      <c r="A90" s="25"/>
       <c r="B90" s="6"/>
       <c r="C90" s="9" t="s">
         <v>105</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>71</v>
@@ -4692,16 +4700,16 @@
       <c r="F90" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G90" s="21"/>
+      <c r="G90" s="19"/>
     </row>
     <row r="91" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A91" s="26"/>
+      <c r="A91" s="25"/>
       <c r="B91" s="6"/>
       <c r="C91" s="9" t="s">
         <v>106</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>71</v>
@@ -4709,16 +4717,16 @@
       <c r="F91" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G91" s="21"/>
+      <c r="G91" s="19"/>
     </row>
     <row r="92" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A92" s="26"/>
+      <c r="A92" s="25"/>
       <c r="B92" s="6"/>
       <c r="C92" s="9" t="s">
         <v>107</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>71</v>
@@ -4726,16 +4734,16 @@
       <c r="F92" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G92" s="21"/>
+      <c r="G92" s="19"/>
     </row>
     <row r="93" spans="1:7" ht="81" x14ac:dyDescent="0.2">
-      <c r="A93" s="26"/>
+      <c r="A93" s="25"/>
       <c r="B93" s="6"/>
       <c r="C93" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>71</v>
@@ -4743,92 +4751,92 @@
       <c r="F93" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G93" s="21"/>
+      <c r="G93" s="19"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="26"/>
+      <c r="A94" s="25"/>
       <c r="B94" s="6"/>
       <c r="C94" s="9" t="s">
         <v>109</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="9" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F94" s="9"/>
-      <c r="G94" s="21"/>
+      <c r="G94" s="19"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="26"/>
+      <c r="A95" s="25"/>
       <c r="B95" s="6"/>
       <c r="C95" s="9" t="s">
         <v>110</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="9" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F95" s="9"/>
-      <c r="G95" s="21"/>
+      <c r="G95" s="19"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="26"/>
+      <c r="A96" s="25"/>
       <c r="B96" s="6"/>
       <c r="C96" s="9" t="s">
         <v>111</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="9" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F96" s="9"/>
-      <c r="G96" s="21"/>
+      <c r="G96" s="19"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="26"/>
+      <c r="A97" s="25"/>
       <c r="B97" s="6"/>
       <c r="C97" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D97" s="6"/>
       <c r="E97" s="9" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F97" s="9"/>
-      <c r="G97" s="21"/>
+      <c r="G97" s="19"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="26"/>
+      <c r="A98" s="25"/>
       <c r="B98" s="6"/>
       <c r="C98" s="9" t="s">
         <v>113</v>
       </c>
       <c r="D98" s="6"/>
       <c r="E98" s="9" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F98" s="9"/>
-      <c r="G98" s="21"/>
+      <c r="G98" s="19"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="26"/>
+      <c r="A99" s="25"/>
       <c r="B99" s="6" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C99" s="9" t="s">
         <v>114</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="9" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F99" s="9"/>
-      <c r="G99" s="21"/>
+      <c r="G99" s="19"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="26"/>
+      <c r="A100" s="25"/>
       <c r="B100" s="6" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>115</v>
@@ -4838,12 +4846,12 @@
         <v>116</v>
       </c>
       <c r="F100" s="9"/>
-      <c r="G100" s="21"/>
+      <c r="G100" s="19"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="26"/>
+      <c r="A101" s="25"/>
       <c r="B101" s="6" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>117</v>
@@ -4853,12 +4861,12 @@
         <v>118</v>
       </c>
       <c r="F101" s="9"/>
-      <c r="G101" s="21"/>
+      <c r="G101" s="19"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="26"/>
+      <c r="A102" s="25"/>
       <c r="B102" s="6" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>119</v>
@@ -4868,12 +4876,12 @@
         <v>120</v>
       </c>
       <c r="F102" s="9"/>
-      <c r="G102" s="21"/>
+      <c r="G102" s="19"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="26"/>
+      <c r="A103" s="25"/>
       <c r="B103" s="6" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C103" s="9" t="s">
         <v>121</v>
@@ -4883,12 +4891,12 @@
         <v>122</v>
       </c>
       <c r="F103" s="9"/>
-      <c r="G103" s="21"/>
+      <c r="G103" s="19"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="26"/>
+      <c r="A104" s="25"/>
       <c r="B104" s="6" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>123</v>
@@ -4898,12 +4906,12 @@
         <v>124</v>
       </c>
       <c r="F104" s="9"/>
-      <c r="G104" s="21"/>
+      <c r="G104" s="19"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="26"/>
+      <c r="A105" s="25"/>
       <c r="B105" s="6" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>125</v>
@@ -4913,12 +4921,12 @@
         <v>126</v>
       </c>
       <c r="F105" s="9"/>
-      <c r="G105" s="21"/>
+      <c r="G105" s="19"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="26"/>
+      <c r="A106" s="25"/>
       <c r="B106" s="6" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>127</v>
@@ -4928,12 +4936,12 @@
         <v>128</v>
       </c>
       <c r="F106" s="9"/>
-      <c r="G106" s="21"/>
+      <c r="G106" s="19"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="26"/>
+      <c r="A107" s="25"/>
       <c r="B107" s="6" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>129</v>
@@ -4943,12 +4951,12 @@
         <v>130</v>
       </c>
       <c r="F107" s="9"/>
-      <c r="G107" s="21"/>
+      <c r="G107" s="19"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="26"/>
+      <c r="A108" s="25"/>
       <c r="B108" s="6" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>131</v>
@@ -4958,12 +4966,12 @@
         <v>132</v>
       </c>
       <c r="F108" s="9"/>
-      <c r="G108" s="21"/>
+      <c r="G108" s="19"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="26"/>
+      <c r="A109" s="25"/>
       <c r="B109" s="6" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>133</v>
@@ -4973,12 +4981,12 @@
         <v>134</v>
       </c>
       <c r="F109" s="9"/>
-      <c r="G109" s="21"/>
+      <c r="G109" s="19"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="26"/>
+      <c r="A110" s="25"/>
       <c r="B110" s="6" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>135</v>
@@ -4988,12 +4996,12 @@
         <v>136</v>
       </c>
       <c r="F110" s="9"/>
-      <c r="G110" s="21"/>
+      <c r="G110" s="19"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="26"/>
+      <c r="A111" s="25"/>
       <c r="B111" s="6" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>137</v>
@@ -5003,12 +5011,12 @@
         <v>138</v>
       </c>
       <c r="F111" s="9"/>
-      <c r="G111" s="21"/>
+      <c r="G111" s="19"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="26"/>
+      <c r="A112" s="25"/>
       <c r="B112" s="6" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C112" s="9" t="s">
         <v>139</v>
@@ -5018,12 +5026,12 @@
         <v>140</v>
       </c>
       <c r="F112" s="9"/>
-      <c r="G112" s="21"/>
+      <c r="G112" s="19"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="26"/>
+      <c r="A113" s="25"/>
       <c r="B113" s="6" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>141</v>
@@ -5033,12 +5041,12 @@
         <v>142</v>
       </c>
       <c r="F113" s="9"/>
-      <c r="G113" s="21"/>
+      <c r="G113" s="19"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="26"/>
+      <c r="A114" s="25"/>
       <c r="B114" s="6" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>143</v>
@@ -5048,12 +5056,12 @@
         <v>144</v>
       </c>
       <c r="F114" s="9"/>
-      <c r="G114" s="21"/>
+      <c r="G114" s="19"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="26"/>
+      <c r="A115" s="25"/>
       <c r="B115" s="6" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C115" s="9" t="s">
         <v>145</v>
@@ -5063,12 +5071,12 @@
         <v>146</v>
       </c>
       <c r="F115" s="9"/>
-      <c r="G115" s="21"/>
+      <c r="G115" s="19"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="26"/>
+      <c r="A116" s="25"/>
       <c r="B116" s="6" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>147</v>
@@ -5078,12 +5086,12 @@
         <v>148</v>
       </c>
       <c r="F116" s="9"/>
-      <c r="G116" s="21"/>
+      <c r="G116" s="19"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="26"/>
+      <c r="A117" s="25"/>
       <c r="B117" s="6" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C117" s="9" t="s">
         <v>149</v>
@@ -5093,12 +5101,12 @@
         <v>150</v>
       </c>
       <c r="F117" s="9"/>
-      <c r="G117" s="21"/>
+      <c r="G117" s="19"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="26"/>
+      <c r="A118" s="25"/>
       <c r="B118" s="6" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>151</v>
@@ -5108,129 +5116,129 @@
         <v>152</v>
       </c>
       <c r="F118" s="9"/>
-      <c r="G118" s="21"/>
+      <c r="G118" s="19"/>
     </row>
     <row r="119" spans="1:7" ht="27" x14ac:dyDescent="0.2">
-      <c r="A119" s="26"/>
+      <c r="A119" s="25"/>
       <c r="B119" s="6" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C119" s="9" t="s">
         <v>153</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="E119" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="F119" s="9"/>
+      <c r="G119" s="19"/>
+    </row>
+    <row r="120" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="25"/>
+      <c r="B120" s="6" t="s">
         <v>425</v>
-      </c>
-      <c r="F119" s="9"/>
-      <c r="G119" s="21"/>
-    </row>
-    <row r="120" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="26"/>
-      <c r="B120" s="6" t="s">
-        <v>431</v>
       </c>
       <c r="C120" s="9" t="s">
         <v>154</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F120" s="9"/>
-      <c r="G120" s="21"/>
+      <c r="G120" s="19"/>
     </row>
     <row r="121" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="26"/>
+      <c r="A121" s="25"/>
       <c r="B121" s="6" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C121" s="9" t="s">
         <v>155</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>156</v>
       </c>
       <c r="F121" s="9"/>
-      <c r="G121" s="21"/>
+      <c r="G121" s="19"/>
     </row>
     <row r="122" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="26"/>
+      <c r="A122" s="25"/>
       <c r="B122" s="6" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>157</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="E122" s="9" t="s">
         <v>158</v>
       </c>
       <c r="F122" s="9"/>
-      <c r="G122" s="21"/>
+      <c r="G122" s="19"/>
     </row>
     <row r="123" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="26"/>
+      <c r="A123" s="25"/>
       <c r="B123" s="6" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C123" s="9" t="s">
         <v>159</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>160</v>
       </c>
       <c r="F123" s="9"/>
-      <c r="G123" s="21"/>
+      <c r="G123" s="19"/>
     </row>
     <row r="124" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="26"/>
+      <c r="A124" s="25"/>
       <c r="B124" s="6" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C124" s="9" t="s">
         <v>161</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>162</v>
       </c>
       <c r="F124" s="9"/>
-      <c r="G124" s="22"/>
+      <c r="G124" s="20"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="B125" s="18"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
+      <c r="A125" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="B125" s="24"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="19"/>
+      <c r="A126" s="17"/>
       <c r="B126" s="6"/>
       <c r="C126" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>163</v>
@@ -5238,10 +5246,10 @@
       <c r="F126" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G126" s="23"/>
+      <c r="G126" s="21"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="19"/>
+      <c r="A127" s="17"/>
       <c r="B127" s="6"/>
       <c r="C127" s="9" t="s">
         <v>165</v>
@@ -5253,31 +5261,31 @@
       <c r="F127" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G127" s="24"/>
+      <c r="G127" s="22"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="19"/>
+      <c r="A128" s="17"/>
       <c r="B128" s="6"/>
       <c r="C128" s="9" t="s">
         <v>167</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>168</v>
       </c>
       <c r="F128" s="9"/>
-      <c r="G128" s="24"/>
+      <c r="G128" s="22"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="19"/>
+      <c r="A129" s="17"/>
       <c r="B129" s="6"/>
       <c r="C129" s="9" t="s">
         <v>169</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>170</v>
@@ -5285,10 +5293,10 @@
       <c r="F129" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="G129" s="24"/>
+      <c r="G129" s="22"/>
     </row>
     <row r="130" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="19"/>
+      <c r="A130" s="17"/>
       <c r="B130" s="6"/>
       <c r="C130" s="9" t="s">
         <v>172</v>
@@ -5300,414 +5308,414 @@
       <c r="F130" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G130" s="24"/>
-    </row>
-    <row r="131" spans="1:7" ht="27" x14ac:dyDescent="0.2">
-      <c r="A131" s="19"/>
+      <c r="G130" s="22"/>
+    </row>
+    <row r="131" spans="1:7" ht="54" x14ac:dyDescent="0.2">
+      <c r="A131" s="17"/>
       <c r="B131" s="6"/>
       <c r="C131" s="9" t="s">
         <v>174</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>445</v>
+        <v>576</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>175</v>
+        <v>574</v>
       </c>
       <c r="F131" s="9"/>
-      <c r="G131" s="24"/>
+      <c r="G131" s="22"/>
     </row>
     <row r="132" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="19"/>
+      <c r="A132" s="17"/>
       <c r="B132" s="6"/>
       <c r="C132" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>177</v>
+        <v>569</v>
       </c>
       <c r="F132" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G132" s="24"/>
+      <c r="G132" s="22"/>
     </row>
     <row r="133" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="19"/>
+      <c r="A133" s="17"/>
       <c r="B133" s="6"/>
       <c r="C133" s="9" t="s">
-        <v>178</v>
+        <v>575</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>446</v>
+        <v>571</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F133" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G133" s="24"/>
+      <c r="G133" s="22"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="19"/>
+      <c r="A134" s="17"/>
       <c r="B134" s="6"/>
       <c r="C134" s="9" t="s">
-        <v>180</v>
+        <v>572</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>447</v>
+        <v>573</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F134" s="9"/>
-      <c r="G134" s="24"/>
+      <c r="G134" s="22"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="19"/>
+      <c r="A135" s="17"/>
       <c r="B135" s="6"/>
       <c r="C135" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>448</v>
+        <v>577</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F135" s="9"/>
-      <c r="G135" s="24"/>
+      <c r="G135" s="22"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="19"/>
+      <c r="A136" s="17"/>
       <c r="B136" s="6"/>
       <c r="C136" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>449</v>
+        <v>578</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F136" s="9"/>
-      <c r="G136" s="24"/>
+      <c r="G136" s="22"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="19"/>
+      <c r="A137" s="17"/>
       <c r="B137" s="6"/>
       <c r="C137" s="9" t="s">
-        <v>186</v>
+        <v>580</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>450</v>
+        <v>579</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F137" s="9"/>
-      <c r="G137" s="24"/>
+      <c r="G137" s="22"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="19"/>
+      <c r="A138" s="17"/>
       <c r="B138" s="6"/>
       <c r="C138" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F138" s="9"/>
-      <c r="G138" s="24"/>
+      <c r="G138" s="22"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="19"/>
+      <c r="A139" s="17"/>
       <c r="B139" s="6"/>
       <c r="C139" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F139" s="9"/>
-      <c r="G139" s="24"/>
+      <c r="G139" s="22"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="19"/>
+      <c r="A140" s="17"/>
       <c r="B140" s="6"/>
       <c r="C140" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F140" s="9"/>
-      <c r="G140" s="24"/>
+      <c r="G140" s="22"/>
     </row>
     <row r="141" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A141" s="19"/>
+      <c r="A141" s="17"/>
       <c r="B141" s="6"/>
       <c r="C141" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F141" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G141" s="24"/>
+      <c r="G141" s="22"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="19"/>
+      <c r="A142" s="17"/>
       <c r="B142" s="6"/>
       <c r="C142" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F142" s="9"/>
-      <c r="G142" s="25"/>
+      <c r="G142" s="23"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="B143" s="18"/>
-      <c r="C143" s="18"/>
-      <c r="D143" s="18"/>
-      <c r="E143" s="18"/>
-      <c r="F143" s="18"/>
-      <c r="G143" s="18"/>
+      <c r="A143" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="B143" s="24"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="24"/>
+      <c r="G143" s="24"/>
     </row>
     <row r="144" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="19"/>
+      <c r="A144" s="17"/>
       <c r="B144" s="6"/>
       <c r="C144" s="9" t="s">
         <v>165</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F144" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G144" s="23"/>
+      <c r="G144" s="21"/>
     </row>
     <row r="145" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="19"/>
+      <c r="A145" s="17"/>
       <c r="B145" s="6"/>
       <c r="C145" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D145" s="6"/>
       <c r="E145" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F145" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G145" s="24"/>
+      <c r="G145" s="22"/>
     </row>
     <row r="146" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="19"/>
+      <c r="A146" s="17"/>
       <c r="B146" s="6"/>
       <c r="C146" s="9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>457</v>
+        <v>568</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>201</v>
+        <v>570</v>
       </c>
       <c r="F146" s="9"/>
-      <c r="G146" s="25"/>
+      <c r="G146" s="23"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="B147" s="18"/>
-      <c r="C147" s="18"/>
-      <c r="D147" s="18"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="18"/>
-      <c r="G147" s="18"/>
+      <c r="A147" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B147" s="24"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="24"/>
+      <c r="F147" s="24"/>
+      <c r="G147" s="24"/>
     </row>
     <row r="148" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="19"/>
+      <c r="A148" s="17"/>
       <c r="B148" s="6"/>
       <c r="C148" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D148" s="6"/>
       <c r="E148" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F148" s="9"/>
-      <c r="G148" s="23"/>
+      <c r="G148" s="21"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="19"/>
+      <c r="A149" s="17"/>
       <c r="B149" s="6"/>
       <c r="C149" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="E149" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F149" s="9"/>
-      <c r="G149" s="24"/>
+      <c r="G149" s="22"/>
     </row>
     <row r="150" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="19"/>
+      <c r="A150" s="17"/>
       <c r="B150" s="6"/>
       <c r="C150" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F150" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G150" s="24"/>
+      <c r="G150" s="22"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="19"/>
+      <c r="A151" s="17"/>
       <c r="B151" s="6"/>
       <c r="C151" s="9" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F151" s="9"/>
-      <c r="G151" s="24"/>
+      <c r="G151" s="22"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="19"/>
+      <c r="A152" s="17"/>
       <c r="B152" s="6"/>
       <c r="C152" s="9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F152" s="9"/>
-      <c r="G152" s="24"/>
+      <c r="G152" s="22"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="19"/>
+      <c r="A153" s="17"/>
       <c r="B153" s="6"/>
       <c r="C153" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D153" s="6"/>
       <c r="E153" s="9" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F153" s="9"/>
-      <c r="G153" s="24"/>
+      <c r="G153" s="22"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="19"/>
+      <c r="A154" s="17"/>
       <c r="B154" s="6"/>
       <c r="C154" s="9" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F154" s="9"/>
-      <c r="G154" s="24"/>
+      <c r="G154" s="22"/>
     </row>
     <row r="155" spans="1:7" ht="27" x14ac:dyDescent="0.2">
-      <c r="A155" s="19"/>
+      <c r="A155" s="17"/>
       <c r="B155" s="6"/>
       <c r="C155" s="9" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F155" s="9"/>
-      <c r="G155" s="25"/>
+      <c r="G155" s="23"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="B156" s="18"/>
-      <c r="C156" s="18"/>
-      <c r="D156" s="18"/>
-      <c r="E156" s="18"/>
-      <c r="F156" s="18"/>
-      <c r="G156" s="18"/>
+      <c r="A156" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="B156" s="24"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="24"/>
+      <c r="G156" s="24"/>
     </row>
     <row r="157" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="19"/>
+      <c r="A157" s="17"/>
       <c r="B157" s="6"/>
       <c r="C157" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F157" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G157" s="23"/>
+      <c r="G157" s="21"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="19"/>
+      <c r="A158" s="17"/>
       <c r="B158" s="6"/>
       <c r="C158" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>1</v>
@@ -5715,361 +5723,361 @@
       <c r="F158" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G158" s="24"/>
+      <c r="G158" s="22"/>
     </row>
     <row r="159" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="19"/>
+      <c r="A159" s="17"/>
       <c r="B159" s="6"/>
       <c r="C159" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F159" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G159" s="24"/>
+      <c r="G159" s="22"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="19"/>
+      <c r="A160" s="17"/>
       <c r="B160" s="6"/>
       <c r="C160" s="9" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F160" s="9"/>
-      <c r="G160" s="24"/>
+      <c r="G160" s="22"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="19"/>
+      <c r="A161" s="17"/>
       <c r="B161" s="6"/>
       <c r="C161" s="9" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F161" s="9"/>
-      <c r="G161" s="24"/>
+      <c r="G161" s="22"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="19"/>
+      <c r="A162" s="17"/>
       <c r="B162" s="6"/>
       <c r="C162" s="9" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F162" s="9"/>
-      <c r="G162" s="24"/>
+      <c r="G162" s="22"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="19"/>
+      <c r="A163" s="17"/>
       <c r="B163" s="6"/>
       <c r="C163" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F163" s="9"/>
-      <c r="G163" s="24"/>
+      <c r="G163" s="22"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="19"/>
+      <c r="A164" s="17"/>
       <c r="B164" s="6"/>
       <c r="C164" s="9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F164" s="9"/>
-      <c r="G164" s="24"/>
+      <c r="G164" s="22"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="19"/>
+      <c r="A165" s="17"/>
       <c r="B165" s="6"/>
       <c r="C165" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F165" s="9"/>
-      <c r="G165" s="24"/>
+      <c r="G165" s="22"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="19"/>
+      <c r="A166" s="17"/>
       <c r="B166" s="6"/>
       <c r="C166" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F166" s="9"/>
-      <c r="G166" s="24"/>
+      <c r="G166" s="22"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="19"/>
+      <c r="A167" s="17"/>
       <c r="B167" s="6"/>
       <c r="C167" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="E167" s="9" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F167" s="9"/>
-      <c r="G167" s="24"/>
+      <c r="G167" s="22"/>
     </row>
     <row r="168" spans="1:7" ht="27" x14ac:dyDescent="0.2">
-      <c r="A168" s="19"/>
+      <c r="A168" s="17"/>
       <c r="B168" s="6"/>
       <c r="C168" s="9" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F168" s="9"/>
-      <c r="G168" s="24"/>
+      <c r="G168" s="22"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="19"/>
+      <c r="A169" s="17"/>
       <c r="B169" s="6"/>
       <c r="C169" s="9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F169" s="9"/>
-      <c r="G169" s="24"/>
+      <c r="G169" s="22"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="19"/>
+      <c r="A170" s="17"/>
       <c r="B170" s="6"/>
       <c r="C170" s="9" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F170" s="9"/>
-      <c r="G170" s="24"/>
+      <c r="G170" s="22"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="19"/>
+      <c r="A171" s="17"/>
       <c r="B171" s="6"/>
       <c r="C171" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F171" s="9"/>
-      <c r="G171" s="24"/>
+      <c r="G171" s="22"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="19"/>
+      <c r="A172" s="17"/>
       <c r="B172" s="6"/>
       <c r="C172" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F172" s="9"/>
-      <c r="G172" s="24"/>
+      <c r="G172" s="22"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="19"/>
+      <c r="A173" s="17"/>
       <c r="B173" s="6"/>
       <c r="C173" s="9" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F173" s="9"/>
-      <c r="G173" s="24"/>
+      <c r="G173" s="22"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="19"/>
+      <c r="A174" s="17"/>
       <c r="B174" s="6"/>
       <c r="C174" s="9" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F174" s="9"/>
-      <c r="G174" s="24"/>
+      <c r="G174" s="22"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="19"/>
+      <c r="A175" s="17"/>
       <c r="B175" s="6"/>
       <c r="C175" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F175" s="9"/>
-      <c r="G175" s="24"/>
+      <c r="G175" s="22"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" s="19"/>
+      <c r="A176" s="17"/>
       <c r="B176" s="6"/>
       <c r="C176" s="9" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="E176" s="9" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F176" s="9"/>
-      <c r="G176" s="24"/>
+      <c r="G176" s="22"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" s="19"/>
+      <c r="A177" s="17"/>
       <c r="B177" s="6"/>
       <c r="C177" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F177" s="9"/>
-      <c r="G177" s="24"/>
+      <c r="G177" s="22"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" s="19"/>
+      <c r="A178" s="17"/>
       <c r="B178" s="6"/>
       <c r="C178" s="9" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="E178" s="9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F178" s="9"/>
-      <c r="G178" s="24"/>
+      <c r="G178" s="22"/>
     </row>
     <row r="179" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="19"/>
+      <c r="A179" s="17"/>
       <c r="B179" s="6"/>
       <c r="C179" s="9" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="E179" s="9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F179" s="9"/>
-      <c r="G179" s="25"/>
+      <c r="G179" s="23"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="B180" s="18"/>
-      <c r="C180" s="18"/>
-      <c r="D180" s="18"/>
-      <c r="E180" s="18"/>
-      <c r="F180" s="18"/>
-      <c r="G180" s="18"/>
+      <c r="A180" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="B180" s="24"/>
+      <c r="C180" s="24"/>
+      <c r="D180" s="24"/>
+      <c r="E180" s="24"/>
+      <c r="F180" s="24"/>
+      <c r="G180" s="24"/>
     </row>
     <row r="181" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A181" s="19"/>
+      <c r="A181" s="17"/>
       <c r="B181" s="6"/>
       <c r="C181" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F181" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G181" s="23"/>
+      <c r="G181" s="21"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" s="19"/>
+      <c r="A182" s="17"/>
       <c r="B182" s="6"/>
       <c r="C182" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="E182" s="9" t="s">
         <v>1</v>
@@ -6077,374 +6085,374 @@
       <c r="F182" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G182" s="24"/>
+      <c r="G182" s="22"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" s="19"/>
+      <c r="A183" s="17"/>
       <c r="B183" s="6"/>
       <c r="C183" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F183" s="9"/>
-      <c r="G183" s="24"/>
+      <c r="G183" s="22"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" s="19"/>
+      <c r="A184" s="17"/>
       <c r="B184" s="6"/>
       <c r="C184" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="F184" s="9"/>
-      <c r="G184" s="24"/>
+      <c r="G184" s="22"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="19"/>
+      <c r="A185" s="17"/>
       <c r="B185" s="6"/>
       <c r="C185" s="9" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="E185" s="9" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F185" s="9"/>
-      <c r="G185" s="24"/>
+      <c r="G185" s="22"/>
     </row>
     <row r="186" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A186" s="19"/>
+      <c r="A186" s="17"/>
       <c r="B186" s="6"/>
       <c r="C186" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="E186" s="9" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F186" s="9"/>
-      <c r="G186" s="24"/>
+      <c r="G186" s="22"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="19"/>
+      <c r="A187" s="17"/>
       <c r="B187" s="6"/>
       <c r="C187" s="9" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F187" s="9"/>
-      <c r="G187" s="24"/>
+      <c r="G187" s="22"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" s="19"/>
+      <c r="A188" s="17"/>
       <c r="B188" s="6"/>
       <c r="C188" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F188" s="9"/>
-      <c r="G188" s="24"/>
+      <c r="G188" s="22"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" s="19"/>
+      <c r="A189" s="17"/>
       <c r="B189" s="6"/>
       <c r="C189" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F189" s="9"/>
-      <c r="G189" s="24"/>
+      <c r="G189" s="22"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" s="19"/>
+      <c r="A190" s="17"/>
       <c r="B190" s="6"/>
       <c r="C190" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F190" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G190" s="24"/>
+      <c r="G190" s="22"/>
     </row>
     <row r="191" spans="1:7" ht="54" x14ac:dyDescent="0.2">
-      <c r="A191" s="19"/>
+      <c r="A191" s="17"/>
       <c r="B191" s="6"/>
       <c r="C191" s="9" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="E191" s="9" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="F191" s="9"/>
-      <c r="G191" s="24"/>
+      <c r="G191" s="22"/>
     </row>
     <row r="192" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A192" s="19"/>
+      <c r="A192" s="17"/>
       <c r="B192" s="6"/>
       <c r="C192" s="9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="E192" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F192" s="9"/>
-      <c r="G192" s="24"/>
+      <c r="G192" s="22"/>
     </row>
     <row r="193" spans="1:7" ht="27" x14ac:dyDescent="0.2">
-      <c r="A193" s="19"/>
+      <c r="A193" s="17"/>
       <c r="B193" s="6"/>
       <c r="C193" s="9" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F193" s="9"/>
-      <c r="G193" s="24"/>
+      <c r="G193" s="22"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" s="19"/>
+      <c r="A194" s="17"/>
       <c r="B194" s="6"/>
       <c r="C194" s="9" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="E194" s="9" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F194" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G194" s="24"/>
+      <c r="G194" s="22"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="19"/>
+      <c r="A195" s="17"/>
       <c r="B195" s="6"/>
       <c r="C195" s="9" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="E195" s="9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F195" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G195" s="24"/>
+      <c r="G195" s="22"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="19"/>
+      <c r="A196" s="17"/>
       <c r="B196" s="6"/>
       <c r="C196" s="9" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="D196" s="6"/>
       <c r="E196" s="9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F196" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G196" s="24"/>
+      <c r="G196" s="22"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" s="19"/>
+      <c r="A197" s="17"/>
       <c r="B197" s="6"/>
       <c r="C197" s="9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F197" s="9"/>
-      <c r="G197" s="24"/>
+      <c r="G197" s="22"/>
     </row>
     <row r="198" spans="1:7" ht="27" x14ac:dyDescent="0.2">
-      <c r="A198" s="19"/>
+      <c r="A198" s="17"/>
       <c r="B198" s="6"/>
       <c r="C198" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="E198" s="9" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F198" s="9"/>
-      <c r="G198" s="24"/>
+      <c r="G198" s="22"/>
     </row>
     <row r="199" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A199" s="19"/>
+      <c r="A199" s="17"/>
       <c r="B199" s="6"/>
       <c r="C199" s="9" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="E199" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F199" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G199" s="24"/>
+      <c r="G199" s="22"/>
     </row>
     <row r="200" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A200" s="19"/>
+      <c r="A200" s="17"/>
       <c r="B200" s="6"/>
       <c r="C200" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="E200" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F200" s="9"/>
-      <c r="G200" s="24"/>
+      <c r="G200" s="22"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" s="19"/>
+      <c r="A201" s="17"/>
       <c r="B201" s="6"/>
       <c r="C201" s="9" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="E201" s="9" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F201" s="9"/>
-      <c r="G201" s="24"/>
+      <c r="G201" s="22"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202" s="19"/>
+      <c r="A202" s="17"/>
       <c r="B202" s="6"/>
       <c r="C202" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F202" s="9"/>
-      <c r="G202" s="24"/>
+      <c r="G202" s="22"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203" s="19"/>
+      <c r="A203" s="17"/>
       <c r="B203" s="6"/>
       <c r="C203" s="9" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F203" s="9"/>
-      <c r="G203" s="24"/>
+      <c r="G203" s="22"/>
     </row>
     <row r="204" spans="1:7" ht="27" x14ac:dyDescent="0.2">
-      <c r="A204" s="19"/>
+      <c r="A204" s="17"/>
       <c r="B204" s="6"/>
       <c r="C204" s="9" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="E204" s="9" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F204" s="9"/>
-      <c r="G204" s="24"/>
+      <c r="G204" s="22"/>
     </row>
     <row r="205" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A205" s="19"/>
+      <c r="A205" s="17"/>
       <c r="B205" s="6"/>
       <c r="C205" s="9" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="E205" s="9" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="F205" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="G205" s="25"/>
+        <v>291</v>
+      </c>
+      <c r="G205" s="23"/>
     </row>
     <row r="206" spans="1:7" ht="27" x14ac:dyDescent="0.2">
       <c r="A206" s="13"/>
       <c r="B206" s="6"/>
       <c r="C206" s="13" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="E206" s="13" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="F206" s="13"/>
       <c r="G206" s="14"/>
@@ -6453,13 +6461,13 @@
       <c r="A207" s="13"/>
       <c r="B207" s="6"/>
       <c r="C207" s="13" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="E207" s="13" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="F207" s="13"/>
       <c r="G207" s="14"/>
@@ -6468,13 +6476,13 @@
       <c r="A208" s="13"/>
       <c r="B208" s="6"/>
       <c r="C208" s="13" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="E208" s="13" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="F208" s="13"/>
       <c r="G208" s="14"/>
@@ -6483,13 +6491,13 @@
       <c r="A209" s="13"/>
       <c r="B209" s="6"/>
       <c r="C209" s="13" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="E209" s="13" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="F209" s="13"/>
       <c r="G209" s="14"/>
@@ -6498,13 +6506,13 @@
       <c r="A210" s="13"/>
       <c r="B210" s="6"/>
       <c r="C210" s="13" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="E210" s="13" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="F210" s="13"/>
       <c r="G210" s="14"/>
@@ -6513,16 +6521,16 @@
       <c r="A211" s="13"/>
       <c r="B211" s="6"/>
       <c r="C211" s="13" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="E211" s="13" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="F211" s="13" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="G211" s="14"/>
     </row>
@@ -6530,13 +6538,13 @@
       <c r="A212" s="13"/>
       <c r="B212" s="6"/>
       <c r="C212" s="13" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="E212" s="13" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="F212" s="13"/>
       <c r="G212" s="14"/>
@@ -6545,13 +6553,13 @@
       <c r="A213" s="13"/>
       <c r="B213" s="6"/>
       <c r="C213" s="13" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="E213" s="13" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="F213" s="13" t="s">
         <v>29</v>
@@ -6562,13 +6570,13 @@
       <c r="A214" s="13"/>
       <c r="B214" s="6"/>
       <c r="C214" s="13" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="E214" s="13" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="F214" s="13" t="s">
         <v>29</v>
@@ -6579,11 +6587,11 @@
       <c r="A215" s="13"/>
       <c r="B215" s="6"/>
       <c r="C215" s="13" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="D215" s="6"/>
       <c r="E215" s="13" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="F215" s="13" t="s">
         <v>29</v>
@@ -6594,11 +6602,11 @@
       <c r="A216" s="13"/>
       <c r="B216" s="6"/>
       <c r="C216" s="13" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="D216" s="6"/>
       <c r="E216" s="13" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="F216" s="13" t="s">
         <v>29</v>
@@ -6609,11 +6617,11 @@
       <c r="A217" s="13"/>
       <c r="B217" s="6"/>
       <c r="C217" s="13" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="D217" s="6"/>
       <c r="E217" s="13" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="F217" s="13" t="s">
         <v>29</v>
@@ -6624,150 +6632,150 @@
       <c r="A218" s="13"/>
       <c r="B218" s="6"/>
       <c r="C218" s="13" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="E218" s="13" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="F218" s="13"/>
       <c r="G218" s="14"/>
     </row>
     <row r="219" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="B219" s="18"/>
-      <c r="C219" s="18"/>
-      <c r="D219" s="18"/>
-      <c r="E219" s="18"/>
-      <c r="F219" s="18"/>
-      <c r="G219" s="18"/>
+      <c r="A219" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="B219" s="24"/>
+      <c r="C219" s="24"/>
+      <c r="D219" s="24"/>
+      <c r="E219" s="24"/>
+      <c r="F219" s="24"/>
+      <c r="G219" s="24"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220" s="19"/>
+      <c r="A220" s="17"/>
       <c r="B220" s="15" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C220" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D220" s="15"/>
       <c r="E220" s="9" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="F220" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G220" s="23"/>
+      <c r="G220" s="21"/>
     </row>
     <row r="221" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A221" s="19"/>
+      <c r="A221" s="17"/>
       <c r="B221" s="15" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D221" s="15" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="E221" s="9" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="F221" s="9"/>
-      <c r="G221" s="24"/>
+      <c r="G221" s="22"/>
     </row>
     <row r="222" spans="1:7" ht="27" x14ac:dyDescent="0.2">
-      <c r="A222" s="19"/>
+      <c r="A222" s="17"/>
       <c r="B222" s="15" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D222" s="27" t="s">
-        <v>574</v>
+        <v>280</v>
+      </c>
+      <c r="D222" s="16" t="s">
+        <v>561</v>
       </c>
       <c r="E222" s="9" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="F222" s="9"/>
-      <c r="G222" s="24"/>
+      <c r="G222" s="22"/>
     </row>
     <row r="223" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A223" s="19"/>
+      <c r="A223" s="17"/>
       <c r="B223" s="15" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="D223" s="27" t="s">
-        <v>573</v>
+        <v>281</v>
+      </c>
+      <c r="D223" s="16" t="s">
+        <v>560</v>
       </c>
       <c r="E223" s="9" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="F223" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G223" s="24"/>
+      <c r="G223" s="22"/>
     </row>
     <row r="224" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A224" s="19"/>
+      <c r="A224" s="17"/>
       <c r="B224" s="15" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D224" s="27" t="s">
-        <v>572</v>
+        <v>462</v>
+      </c>
+      <c r="D224" s="16" t="s">
+        <v>559</v>
       </c>
       <c r="E224" s="9" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="F224" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G224" s="24"/>
+      <c r="G224" s="22"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A225" s="19"/>
+      <c r="A225" s="17"/>
       <c r="B225" s="15" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="D225" s="27" t="s">
-        <v>570</v>
+        <v>282</v>
+      </c>
+      <c r="D225" s="16" t="s">
+        <v>557</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="F225" s="9"/>
-      <c r="G225" s="24"/>
+      <c r="G225" s="22"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A226" s="19"/>
+      <c r="A226" s="17"/>
       <c r="B226" s="15" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D226" s="27" t="s">
-        <v>571</v>
+        <v>283</v>
+      </c>
+      <c r="D226" s="16" t="s">
+        <v>558</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="F226" s="9"/>
-      <c r="G226" s="25"/>
+      <c r="G226" s="23"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="12"/>
@@ -6780,6 +6788,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A125:G125"/>
+    <mergeCell ref="A147:G147"/>
+    <mergeCell ref="A143:G143"/>
+    <mergeCell ref="A156:G156"/>
     <mergeCell ref="A220:A226"/>
     <mergeCell ref="G3:G124"/>
     <mergeCell ref="G126:G142"/>
@@ -6796,11 +6809,6 @@
     <mergeCell ref="A148:A155"/>
     <mergeCell ref="A157:A179"/>
     <mergeCell ref="A181:A205"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A125:G125"/>
-    <mergeCell ref="A147:G147"/>
-    <mergeCell ref="A143:G143"/>
-    <mergeCell ref="A156:G156"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
